--- a/PEACH/241027/In vivo PK/[OCT-598] 0040523197_Dog_PK_raw data_20230922.xlsx
+++ b/PEACH/241027/In vivo PK/[OCT-598] 0040523197_Dog_PK_raw data_20230922.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSKWON\OSCOTEC Dropbox\Drug Evaluation\Human PK simulation\In vivo PK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NONMEM\PEACH\241027\In vivo PK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5677E48-E34E-4C8B-8D44-18DB9CD8B31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ABF47E-D671-4171-B1AA-163FE3AD57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="630" windowWidth="21600" windowHeight="13830" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="135" windowWidth="26175" windowHeight="17205" tabRatio="878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PK parameters" sheetId="66" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="120">
   <si>
     <t>1. CONCENTRATIONS</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -506,6 +506,14 @@
     <t>Dose proportionality</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>M17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -513,10 +521,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -644,7 +652,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -910,13 +917,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="4" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="4" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="7" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -925,7 +932,7 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="9" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="9" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
@@ -949,10 +956,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="9" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="9" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,10 +968,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="31" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="7" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="7" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1145,7 +1152,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1187,7 +1194,40 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="9" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,45 +1239,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="9" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,32 +1269,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -2215,192 +2222,192 @@
       <c r="BD1" s="10"/>
     </row>
     <row r="2" spans="2:56" ht="21.6" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="J2" s="110" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="J2" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="110" t="s">
+      <c r="R2" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="110" t="s">
+      <c r="Z2" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
       <c r="AG2" s="10"/>
-      <c r="AH2" s="110" t="s">
+      <c r="AH2" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
       <c r="AO2" s="10"/>
-      <c r="AP2" s="110" t="s">
+      <c r="AP2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="110"/>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="110"/>
-      <c r="AU2" s="110"/>
-      <c r="AV2" s="110"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
       <c r="AW2" s="10"/>
-      <c r="AX2" s="110" t="s">
+      <c r="AX2" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="110"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
     </row>
     <row r="3" spans="2:56" ht="21.6" customHeight="1">
       <c r="B3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="J3" s="105" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="J3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="107" t="s">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="107" t="s">
+      <c r="O3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="106" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="10"/>
-      <c r="R3" s="105" t="s">
+      <c r="R3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="107" t="s">
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="107" t="s">
+      <c r="W3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="103" t="s">
+      <c r="X3" s="106" t="s">
         <v>23</v>
       </c>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="105" t="s">
+      <c r="Z3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="113" t="s">
+      <c r="AA3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="107" t="s">
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="107" t="s">
+      <c r="AE3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="103" t="s">
+      <c r="AF3" s="106" t="s">
         <v>23</v>
       </c>
       <c r="AG3" s="10"/>
-      <c r="AH3" s="105" t="s">
+      <c r="AH3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="113" t="s">
+      <c r="AI3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="107" t="s">
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="107" t="s">
+      <c r="AM3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AN3" s="103" t="s">
+      <c r="AN3" s="106" t="s">
         <v>23</v>
       </c>
       <c r="AO3" s="10"/>
-      <c r="AP3" s="105" t="s">
+      <c r="AP3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="113" t="s">
+      <c r="AQ3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="107" t="s">
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="AU3" s="107" t="s">
+      <c r="AU3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AV3" s="103" t="s">
+      <c r="AV3" s="106" t="s">
         <v>23</v>
       </c>
       <c r="AW3" s="10"/>
-      <c r="AX3" s="105" t="s">
+      <c r="AX3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="113" t="s">
+      <c r="AY3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="107" t="s">
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="107" t="s">
+      <c r="BC3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="BD3" s="103" t="s">
+      <c r="BD3" s="106" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2426,7 +2433,7 @@
       <c r="H4" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="37" t="s">
         <v>14</v>
       </c>
@@ -2436,11 +2443,11 @@
       <c r="M4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="104"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="107"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="106"/>
+      <c r="R4" s="102"/>
       <c r="S4" s="64" t="s">
         <v>22</v>
       </c>
@@ -2450,11 +2457,11 @@
       <c r="U4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="104"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="107"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="106"/>
+      <c r="Z4" s="102"/>
       <c r="AA4" s="64" t="s">
         <v>45</v>
       </c>
@@ -2464,11 +2471,11 @@
       <c r="AC4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="107"/>
       <c r="AG4" s="10"/>
-      <c r="AH4" s="106"/>
+      <c r="AH4" s="102"/>
       <c r="AI4" s="64" t="s">
         <v>49</v>
       </c>
@@ -2478,11 +2485,11 @@
       <c r="AK4" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="104"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="107"/>
       <c r="AO4" s="10"/>
-      <c r="AP4" s="106"/>
+      <c r="AP4" s="102"/>
       <c r="AQ4" s="64" t="s">
         <v>53</v>
       </c>
@@ -2492,11 +2499,11 @@
       <c r="AS4" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="104"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="107"/>
       <c r="AW4" s="10"/>
-      <c r="AX4" s="106"/>
+      <c r="AX4" s="102"/>
       <c r="AY4" s="64" t="s">
         <v>80</v>
       </c>
@@ -2506,9 +2513,9 @@
       <c r="BA4" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="104"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="107"/>
     </row>
     <row r="5" spans="2:56" ht="21.6" customHeight="1">
       <c r="B5" s="71" t="s">
@@ -5410,7 +5417,7 @@
       <c r="D40" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="111" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5424,7 +5431,7 @@
       <c r="D41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="101"/>
+      <c r="E41" s="112"/>
     </row>
     <row r="42" spans="2:5" ht="21.6" customHeight="1">
       <c r="B42" s="76" t="s">
@@ -5436,7 +5443,7 @@
       <c r="D42" s="67">
         <v>10</v>
       </c>
-      <c r="E42" s="102"/>
+      <c r="E42" s="113"/>
     </row>
     <row r="43" spans="2:5" ht="21.6" customHeight="1">
       <c r="B43" s="83" t="s">
@@ -5489,7 +5496,7 @@
       <c r="D60" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="100" t="s">
+      <c r="E60" s="111" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5503,7 +5510,7 @@
       <c r="D61" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="101"/>
+      <c r="E61" s="112"/>
     </row>
     <row r="62" spans="2:5" ht="21.6" customHeight="1">
       <c r="B62" s="76" t="s">
@@ -5515,7 +5522,7 @@
       <c r="D62" s="67">
         <v>10</v>
       </c>
-      <c r="E62" s="102"/>
+      <c r="E62" s="113"/>
     </row>
     <row r="63" spans="2:5" ht="21.6" customHeight="1">
       <c r="B63" s="83" t="s">
@@ -5554,18 +5561,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Z2:AF2"/>
@@ -5576,24 +5589,18 @@
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5834,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D4AAF7-9017-4BC1-84B7-B9123A834EBD}">
   <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R69" sqref="A65:R69"/>
+    <sheetView tabSelected="1" topLeftCell="J28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="22.5" customHeight="1"/>
@@ -5867,33 +5874,33 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
       <c r="V2" s="4"/>
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="114" t="s">
@@ -5911,21 +5918,21 @@
       <c r="G3" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="116" t="s">
+      <c r="O3" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="114" t="s">
@@ -5943,15 +5950,15 @@
       <c r="T3" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="124" t="s">
+      <c r="U3" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="124"/>
-      <c r="W3" s="125"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="117"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B4" s="123"/>
+      <c r="B4" s="124"/>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
       <c r="E4" s="115"/>
@@ -5968,8 +5975,8 @@
       </c>
       <c r="K4" s="128"/>
       <c r="L4" s="128"/>
-      <c r="M4" s="130"/>
-      <c r="O4" s="123"/>
+      <c r="M4" s="126"/>
+      <c r="O4" s="124"/>
       <c r="P4" s="115"/>
       <c r="Q4" s="115"/>
       <c r="R4" s="115"/>
@@ -5987,19 +5994,19 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="121">
         <v>3</v>
       </c>
       <c r="G5" s="45">
@@ -6026,19 +6033,19 @@
         <f t="shared" ref="M5:M12" si="1">L5/K5*100</f>
         <v>7.83184991685886</v>
       </c>
-      <c r="O5" s="116" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="119" t="s">
+      <c r="Q5" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="119">
+      <c r="S5" s="121">
         <v>3</v>
       </c>
       <c r="T5" s="45">
@@ -6056,11 +6063,11 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B6" s="117"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
       <c r="G6" s="13">
         <v>0.25</v>
       </c>
@@ -6085,11 +6092,11 @@
         <f t="shared" si="1"/>
         <v>18.658981502716639</v>
       </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="13">
         <v>0.25</v>
       </c>
@@ -6105,11 +6112,11 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B7" s="117"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="13">
         <v>0.5</v>
       </c>
@@ -6134,11 +6141,11 @@
         <f t="shared" si="1"/>
         <v>28.516047738707556</v>
       </c>
-      <c r="O7" s="117"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
       <c r="T7" s="13">
         <v>0.5</v>
       </c>
@@ -6154,11 +6161,11 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B8" s="117"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="13">
         <v>1</v>
       </c>
@@ -6183,11 +6190,11 @@
         <f t="shared" si="1"/>
         <v>51.890066653225553</v>
       </c>
-      <c r="O8" s="117"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
       <c r="T8" s="13">
         <v>1</v>
       </c>
@@ -6203,11 +6210,11 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B9" s="117"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="13">
         <v>2</v>
       </c>
@@ -6232,11 +6239,11 @@
         <f t="shared" si="1"/>
         <v>52.431265335690235</v>
       </c>
-      <c r="O9" s="117"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
       <c r="T9" s="13">
         <v>2</v>
       </c>
@@ -6252,11 +6259,11 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B10" s="117"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="13">
         <v>4</v>
       </c>
@@ -6281,11 +6288,11 @@
         <f t="shared" si="1"/>
         <v>108.59707435221027</v>
       </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
       <c r="T10" s="13">
         <v>4</v>
       </c>
@@ -6301,11 +6308,11 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B11" s="117"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="13">
         <v>8</v>
       </c>
@@ -6330,11 +6337,11 @@
         <f t="shared" si="1"/>
         <v>87.966753221350942</v>
       </c>
-      <c r="O11" s="117"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
       <c r="T11" s="13">
         <v>8</v>
       </c>
@@ -6350,11 +6357,11 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B12" s="118"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="46">
         <v>24</v>
       </c>
@@ -6379,11 +6386,11 @@
         <f t="shared" si="1"/>
         <v>173.20508075688772</v>
       </c>
-      <c r="O12" s="118"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
       <c r="T12" s="46">
         <v>24</v>
       </c>
@@ -6399,7 +6406,7 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="114" t="s">
@@ -6417,21 +6424,21 @@
       <c r="G13" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="124" t="s">
+      <c r="H13" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
       <c r="K13" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L13" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="129" t="s">
+      <c r="M13" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="114" t="s">
@@ -6449,15 +6456,15 @@
       <c r="T13" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="124" t="s">
+      <c r="U13" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V13" s="124"/>
-      <c r="W13" s="125"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="117"/>
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B14" s="123"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="115"/>
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
@@ -6474,8 +6481,8 @@
       </c>
       <c r="K14" s="128"/>
       <c r="L14" s="128"/>
-      <c r="M14" s="130"/>
-      <c r="O14" s="123"/>
+      <c r="M14" s="126"/>
+      <c r="O14" s="124"/>
       <c r="P14" s="115"/>
       <c r="Q14" s="115"/>
       <c r="R14" s="115"/>
@@ -6493,19 +6500,19 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="121">
         <v>3</v>
       </c>
       <c r="G15" s="45">
@@ -6532,19 +6539,19 @@
         <f t="shared" ref="M15:M20" si="6">L15/K15*100</f>
         <v>42.537777028259306</v>
       </c>
-      <c r="O15" s="116" t="s">
+      <c r="O15" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="119" t="s">
+      <c r="P15" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="119" t="s">
+      <c r="Q15" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="119" t="s">
+      <c r="R15" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="119">
+      <c r="S15" s="121">
         <v>3</v>
       </c>
       <c r="T15" s="45">
@@ -6562,11 +6569,11 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="2:24" ht="22.5" customHeight="1">
-      <c r="B16" s="117"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="13">
         <v>1</v>
       </c>
@@ -6591,11 +6598,11 @@
         <f t="shared" si="6"/>
         <v>53.793523957526254</v>
       </c>
-      <c r="O16" s="117"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
       <c r="T16" s="13">
         <v>1</v>
       </c>
@@ -6610,11 +6617,11 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B17" s="117"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="13">
         <v>2</v>
       </c>
@@ -6639,11 +6646,11 @@
         <f t="shared" si="6"/>
         <v>48.907923686720252</v>
       </c>
-      <c r="O17" s="117"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
       <c r="T17" s="13">
         <v>2</v>
       </c>
@@ -6658,11 +6665,11 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B18" s="117"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="13">
         <v>4</v>
       </c>
@@ -6687,11 +6694,11 @@
         <f t="shared" si="6"/>
         <v>101.60755908548154</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
       <c r="T18" s="13">
         <v>4</v>
       </c>
@@ -6706,11 +6713,11 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B19" s="117"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="13">
         <v>8</v>
       </c>
@@ -6735,11 +6742,11 @@
         <f t="shared" si="6"/>
         <v>51.624445128382092</v>
       </c>
-      <c r="O19" s="117"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
       <c r="T19" s="13">
         <v>8</v>
       </c>
@@ -6754,11 +6761,11 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="13">
         <v>12</v>
       </c>
@@ -6783,11 +6790,11 @@
         <f t="shared" si="6"/>
         <v>110.94675475641738</v>
       </c>
-      <c r="O20" s="117"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
       <c r="T20" s="13">
         <v>12</v>
       </c>
@@ -6802,11 +6809,11 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="46">
         <v>24</v>
       </c>
@@ -6830,11 +6837,11 @@
       <c r="M21" s="9">
         <v>0</v>
       </c>
-      <c r="O21" s="117"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
       <c r="T21" s="46">
         <v>24</v>
       </c>
@@ -6849,7 +6856,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="114" t="s">
@@ -6867,21 +6874,21 @@
       <c r="G22" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="129" t="s">
+      <c r="M22" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="116" t="s">
+      <c r="O22" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P22" s="114" t="s">
@@ -6899,14 +6906,14 @@
       <c r="T22" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="124" t="s">
+      <c r="U22" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="124"/>
-      <c r="W22" s="125"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="117"/>
     </row>
     <row r="23" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B23" s="123"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
@@ -6923,8 +6930,8 @@
       </c>
       <c r="K23" s="128"/>
       <c r="L23" s="128"/>
-      <c r="M23" s="130"/>
-      <c r="O23" s="123"/>
+      <c r="M23" s="126"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="115"/>
       <c r="Q23" s="115"/>
       <c r="R23" s="115"/>
@@ -6941,19 +6948,19 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="121">
         <v>10</v>
       </c>
       <c r="G24" s="45">
@@ -6980,19 +6987,19 @@
         <f t="shared" ref="M24:M29" si="9">L24/K24*100</f>
         <v>9.0191950583178997</v>
       </c>
-      <c r="O24" s="116" t="s">
+      <c r="O24" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="119" t="s">
+      <c r="P24" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="119" t="s">
+      <c r="Q24" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="119" t="s">
+      <c r="R24" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="S24" s="119">
+      <c r="S24" s="121">
         <v>10</v>
       </c>
       <c r="T24" s="45">
@@ -7009,11 +7016,11 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B25" s="117"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>1</v>
       </c>
@@ -7038,11 +7045,11 @@
         <f t="shared" si="9"/>
         <v>29.743730909855948</v>
       </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
       <c r="T25" s="13">
         <v>1</v>
       </c>
@@ -7057,11 +7064,11 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B26" s="117"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>2</v>
       </c>
@@ -7086,11 +7093,11 @@
         <f t="shared" si="9"/>
         <v>28.542617303873634</v>
       </c>
-      <c r="O26" s="117"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="13">
         <v>2</v>
       </c>
@@ -7105,11 +7112,11 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B27" s="117"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="13">
         <v>4</v>
       </c>
@@ -7134,11 +7141,11 @@
         <f t="shared" si="9"/>
         <v>49.99445774457962</v>
       </c>
-      <c r="O27" s="117"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
       <c r="T27" s="13">
         <v>4</v>
       </c>
@@ -7153,11 +7160,11 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B28" s="117"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="13">
         <v>8</v>
       </c>
@@ -7182,11 +7189,11 @@
         <f t="shared" si="9"/>
         <v>53.144050568080459</v>
       </c>
-      <c r="O28" s="117"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
       <c r="T28" s="13">
         <v>8</v>
       </c>
@@ -7201,11 +7208,11 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="13">
         <v>12</v>
       </c>
@@ -7230,11 +7237,11 @@
         <f t="shared" si="9"/>
         <v>91.528432318845987</v>
       </c>
-      <c r="O29" s="117"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="13">
         <v>12</v>
       </c>
@@ -7249,11 +7256,11 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B30" s="117"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="46">
         <v>24</v>
       </c>
@@ -7277,11 +7284,11 @@
       <c r="M30" s="9">
         <v>0</v>
       </c>
-      <c r="O30" s="117"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
       <c r="T30" s="46">
         <v>24</v>
       </c>
@@ -7296,7 +7303,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="114" t="s">
@@ -7314,21 +7321,21 @@
       <c r="G31" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="124" t="s">
+      <c r="H31" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
       <c r="K31" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L31" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="129" t="s">
+      <c r="M31" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="116" t="s">
+      <c r="O31" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P31" s="114" t="s">
@@ -7346,14 +7353,14 @@
       <c r="T31" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="124" t="s">
+      <c r="U31" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V31" s="124"/>
-      <c r="W31" s="125"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="117"/>
     </row>
     <row r="32" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B32" s="123"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="115"/>
       <c r="D32" s="115"/>
       <c r="E32" s="115"/>
@@ -7370,8 +7377,8 @@
       </c>
       <c r="K32" s="128"/>
       <c r="L32" s="128"/>
-      <c r="M32" s="130"/>
-      <c r="O32" s="123"/>
+      <c r="M32" s="126"/>
+      <c r="O32" s="124"/>
       <c r="P32" s="115"/>
       <c r="Q32" s="115"/>
       <c r="R32" s="115"/>
@@ -7388,19 +7395,19 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F33" s="121">
         <v>10</v>
       </c>
       <c r="G33" s="45">
@@ -7426,19 +7433,19 @@
       <c r="M33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="116" t="s">
+      <c r="O33" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="119" t="s">
+      <c r="P33" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="Q33" s="119" t="s">
+      <c r="Q33" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="119" t="s">
+      <c r="R33" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S33" s="119">
+      <c r="S33" s="121">
         <v>10</v>
       </c>
       <c r="T33" s="45">
@@ -7455,11 +7462,11 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="13">
         <v>1</v>
       </c>
@@ -7484,11 +7491,11 @@
         <f t="shared" ref="M34:M39" si="13">L34/K34*100</f>
         <v>52.340834784180188</v>
       </c>
-      <c r="O34" s="117"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
       <c r="T34" s="13">
         <v>1</v>
       </c>
@@ -7503,11 +7510,11 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B35" s="117"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
       <c r="G35" s="13">
         <v>2</v>
       </c>
@@ -7532,11 +7539,11 @@
         <f t="shared" si="13"/>
         <v>46.199180935201603</v>
       </c>
-      <c r="O35" s="117"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
       <c r="T35" s="13">
         <v>2</v>
       </c>
@@ -7551,11 +7558,11 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B36" s="117"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
       <c r="G36" s="13">
         <v>4</v>
       </c>
@@ -7580,11 +7587,11 @@
         <f t="shared" si="13"/>
         <v>19.422849882020294</v>
       </c>
-      <c r="O36" s="117"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
       <c r="T36" s="13">
         <v>4</v>
       </c>
@@ -7599,11 +7606,11 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B37" s="117"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
       <c r="G37" s="13">
         <v>8</v>
       </c>
@@ -7628,11 +7635,11 @@
         <f t="shared" si="13"/>
         <v>120.6782000357131</v>
       </c>
-      <c r="O37" s="117"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
       <c r="T37" s="13">
         <v>8</v>
       </c>
@@ -7647,11 +7654,11 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B38" s="117"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
       <c r="G38" s="13">
         <v>12</v>
       </c>
@@ -7676,11 +7683,11 @@
         <f t="shared" si="13"/>
         <v>118.64076280738712</v>
       </c>
-      <c r="O38" s="117"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
       <c r="T38" s="13">
         <v>12</v>
       </c>
@@ -7695,11 +7702,11 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B39" s="117"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
       <c r="G39" s="46">
         <v>24</v>
       </c>
@@ -7724,11 +7731,11 @@
         <f t="shared" si="13"/>
         <v>173.20508075688775</v>
       </c>
-      <c r="O39" s="117"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="120"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
       <c r="T39" s="46">
         <v>24</v>
       </c>
@@ -7743,7 +7750,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="114" t="s">
@@ -7761,21 +7768,21 @@
       <c r="G40" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="124" t="s">
+      <c r="H40" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
       <c r="K40" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L40" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="129" t="s">
+      <c r="M40" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O40" s="116" t="s">
+      <c r="O40" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="114" t="s">
@@ -7793,14 +7800,14 @@
       <c r="T40" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U40" s="124" t="s">
+      <c r="U40" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="124"/>
-      <c r="W40" s="125"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="117"/>
     </row>
     <row r="41" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B41" s="123"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="115"/>
       <c r="D41" s="115"/>
       <c r="E41" s="115"/>
@@ -7817,8 +7824,8 @@
       </c>
       <c r="K41" s="128"/>
       <c r="L41" s="128"/>
-      <c r="M41" s="130"/>
-      <c r="O41" s="123"/>
+      <c r="M41" s="126"/>
+      <c r="O41" s="124"/>
       <c r="P41" s="115"/>
       <c r="Q41" s="115"/>
       <c r="R41" s="115"/>
@@ -7835,19 +7842,19 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="119" t="s">
+      <c r="D42" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="119">
+      <c r="F42" s="121">
         <v>30</v>
       </c>
       <c r="G42" s="45">
@@ -7873,19 +7880,19 @@
       <c r="M42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="116" t="s">
+      <c r="O42" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="P42" s="119" t="s">
+      <c r="P42" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="119" t="s">
+      <c r="Q42" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="R42" s="119" t="s">
+      <c r="R42" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S42" s="119">
+      <c r="S42" s="121">
         <v>30</v>
       </c>
       <c r="T42" s="45">
@@ -7902,11 +7909,11 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B43" s="117"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="13">
         <v>1</v>
       </c>
@@ -7931,11 +7938,11 @@
         <f t="shared" ref="M43:M48" si="16">L43/K43*100</f>
         <v>95.903797578989852</v>
       </c>
-      <c r="O43" s="117"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
       <c r="T43" s="13">
         <v>1</v>
       </c>
@@ -7950,11 +7957,11 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B44" s="117"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="13">
         <v>2</v>
       </c>
@@ -7979,11 +7986,11 @@
         <f t="shared" si="16"/>
         <v>135.71421921481394</v>
       </c>
-      <c r="O44" s="117"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
       <c r="T44" s="13">
         <v>2</v>
       </c>
@@ -7998,11 +8005,11 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B45" s="117"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
       <c r="G45" s="13">
         <v>4</v>
       </c>
@@ -8027,11 +8034,11 @@
         <f t="shared" si="16"/>
         <v>123.50911703892393</v>
       </c>
-      <c r="O45" s="117"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="122"/>
       <c r="T45" s="13">
         <v>4</v>
       </c>
@@ -8046,11 +8053,11 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B46" s="117"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
       <c r="G46" s="13">
         <v>8</v>
       </c>
@@ -8075,11 +8082,11 @@
         <f t="shared" si="16"/>
         <v>138.34559414241122</v>
       </c>
-      <c r="O46" s="117"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
       <c r="T46" s="13">
         <v>8</v>
       </c>
@@ -8094,11 +8101,11 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B47" s="117"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
       <c r="G47" s="13">
         <v>12</v>
       </c>
@@ -8123,11 +8130,11 @@
         <f t="shared" si="16"/>
         <v>144.46418619034824</v>
       </c>
-      <c r="O47" s="117"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="122"/>
       <c r="T47" s="13">
         <v>12</v>
       </c>
@@ -8142,11 +8149,11 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B48" s="117"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
       <c r="G48" s="46">
         <v>24</v>
       </c>
@@ -8171,11 +8178,11 @@
         <f t="shared" si="16"/>
         <v>165.05359893706341</v>
       </c>
-      <c r="O48" s="117"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="120"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
       <c r="T48" s="46">
         <v>24</v>
       </c>
@@ -8190,7 +8197,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="114" t="s">
@@ -8208,21 +8215,21 @@
       <c r="G49" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="124" t="s">
+      <c r="H49" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
       <c r="K49" s="127" t="s">
         <v>2</v>
       </c>
       <c r="L49" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="129" t="s">
+      <c r="M49" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="116" t="s">
+      <c r="O49" s="118" t="s">
         <v>33</v>
       </c>
       <c r="P49" s="114" t="s">
@@ -8240,14 +8247,14 @@
       <c r="T49" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="124" t="s">
+      <c r="U49" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="124"/>
-      <c r="W49" s="125"/>
+      <c r="V49" s="116"/>
+      <c r="W49" s="117"/>
     </row>
     <row r="50" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B50" s="123"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="115"/>
       <c r="D50" s="115"/>
       <c r="E50" s="115"/>
@@ -8264,37 +8271,37 @@
       </c>
       <c r="K50" s="128"/>
       <c r="L50" s="128"/>
-      <c r="M50" s="130"/>
-      <c r="O50" s="123"/>
+      <c r="M50" s="126"/>
+      <c r="O50" s="124"/>
       <c r="P50" s="115"/>
       <c r="Q50" s="115"/>
       <c r="R50" s="115"/>
       <c r="S50" s="115"/>
       <c r="T50" s="115"/>
       <c r="U50" s="5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="W50" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="119" t="s">
+      <c r="D51" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="119" t="s">
+      <c r="E51" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="119">
+      <c r="F51" s="121">
         <v>10</v>
       </c>
       <c r="G51" s="45">
@@ -8321,19 +8328,19 @@
         <f t="shared" ref="M51:M57" si="18">L51/K51*100</f>
         <v>37.539732460650285</v>
       </c>
-      <c r="O51" s="116" t="s">
+      <c r="O51" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="P51" s="119" t="s">
+      <c r="P51" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="Q51" s="119" t="s">
+      <c r="Q51" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="R51" s="119" t="s">
+      <c r="R51" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S51" s="119">
+      <c r="S51" s="121">
         <v>10</v>
       </c>
       <c r="T51" s="45">
@@ -8350,11 +8357,11 @@
       </c>
     </row>
     <row r="52" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B52" s="117"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
       <c r="G52" s="13">
         <v>1</v>
       </c>
@@ -8379,11 +8386,11 @@
         <f t="shared" si="18"/>
         <v>60.599216838543171</v>
       </c>
-      <c r="O52" s="117"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
       <c r="T52" s="13">
         <v>1</v>
       </c>
@@ -8398,11 +8405,11 @@
       </c>
     </row>
     <row r="53" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B53" s="117"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
       <c r="G53" s="13">
         <v>2</v>
       </c>
@@ -8427,11 +8434,11 @@
         <f t="shared" si="18"/>
         <v>78.894943091354747</v>
       </c>
-      <c r="O53" s="117"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="120"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
       <c r="T53" s="13">
         <v>2</v>
       </c>
@@ -8446,11 +8453,11 @@
       </c>
     </row>
     <row r="54" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B54" s="117"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
       <c r="G54" s="13">
         <v>4</v>
       </c>
@@ -8475,11 +8482,11 @@
         <f t="shared" si="18"/>
         <v>31.696260794927909</v>
       </c>
-      <c r="O54" s="117"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="120"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
       <c r="T54" s="13">
         <v>4</v>
       </c>
@@ -8494,11 +8501,11 @@
       </c>
     </row>
     <row r="55" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B55" s="117"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="13">
         <v>8</v>
       </c>
@@ -8523,11 +8530,11 @@
         <f t="shared" si="18"/>
         <v>44.615563725356935</v>
       </c>
-      <c r="O55" s="117"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
       <c r="T55" s="13">
         <v>8</v>
       </c>
@@ -8542,11 +8549,11 @@
       </c>
     </row>
     <row r="56" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B56" s="117"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
       <c r="G56" s="13">
         <v>12</v>
       </c>
@@ -8571,11 +8578,11 @@
         <f t="shared" si="18"/>
         <v>48.973800874330038</v>
       </c>
-      <c r="O56" s="117"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="120"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
       <c r="T56" s="13">
         <v>12</v>
       </c>
@@ -8590,11 +8597,11 @@
       </c>
     </row>
     <row r="57" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="46">
         <v>24</v>
       </c>
@@ -8619,11 +8626,11 @@
         <f t="shared" si="18"/>
         <v>173.20508075688772</v>
       </c>
-      <c r="O57" s="118"/>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="121"/>
-      <c r="R57" s="121"/>
-      <c r="S57" s="121"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
       <c r="T57" s="46">
         <v>24</v>
       </c>
@@ -8638,100 +8645,84 @@
       </c>
     </row>
     <row r="58" spans="2:23" ht="22.5" customHeight="1">
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="O51:O57"/>
-    <mergeCell ref="P51:P57"/>
-    <mergeCell ref="Q51:Q57"/>
-    <mergeCell ref="R51:R57"/>
-    <mergeCell ref="S51:S57"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="O42:O48"/>
-    <mergeCell ref="P42:P48"/>
-    <mergeCell ref="Q42:Q48"/>
-    <mergeCell ref="R42:R48"/>
-    <mergeCell ref="S42:S48"/>
-    <mergeCell ref="S33:S39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="P33:P39"/>
-    <mergeCell ref="Q33:Q39"/>
-    <mergeCell ref="R33:R39"/>
-    <mergeCell ref="S15:S21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="S24:S30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="F5:F12"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="R5:R12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="O33:O39"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q21"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="R15:R21"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -8756,68 +8747,84 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q21"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="P15:P21"/>
-    <mergeCell ref="R15:R21"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="O33:O39"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="F5:F12"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="R5:R12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="S15:S21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="S24:S30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="O42:O48"/>
+    <mergeCell ref="P42:P48"/>
+    <mergeCell ref="Q42:Q48"/>
+    <mergeCell ref="R42:R48"/>
+    <mergeCell ref="S42:S48"/>
+    <mergeCell ref="S33:S39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="P33:P39"/>
+    <mergeCell ref="Q33:Q39"/>
+    <mergeCell ref="R33:R39"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="O51:O57"/>
+    <mergeCell ref="P51:P57"/>
+    <mergeCell ref="Q51:Q57"/>
+    <mergeCell ref="R51:R57"/>
+    <mergeCell ref="S51:S57"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:S50"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
